--- a/ER図.xlsx
+++ b/ER図.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takipon/Desktop/sample4_20221225/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6FC7B-02A9-0E4C-A0C1-745A5E3B63C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38247D0-A3D3-174C-9799-38AB30D4257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="19720" windowHeight="16940" xr2:uid="{55F4F300-07AF-1A40-B4E9-D1DD3D7E1D26}"/>
+    <workbookView xWindow="1900" yWindow="500" windowWidth="24620" windowHeight="13960" xr2:uid="{55F4F300-07AF-1A40-B4E9-D1DD3D7E1D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>買い物カゴ</t>
     <rPh sb="0" eb="1">
@@ -316,6 +316,17 @@
     <rPh sb="12" eb="14">
       <t>コスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード有効期限</t>
+    <rPh sb="3" eb="7">
+      <t>ユウコウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -340,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +376,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -380,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,12 +416,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1467,15 +1501,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>O</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>K</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購入</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1654,8 +1683,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>686093</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134299</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1671,7 +1700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="496323" y="7006896"/>
-          <a:ext cx="3034570" cy="1509403"/>
+          <a:ext cx="3034570" cy="2391104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,7 +1760,134 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
-            <a:t>CREATE TABLE test (id serial PRIMARY KEY,test VARCHAR(50));</a:t>
+            <a:t>CREATE TABLE test (id serial PRIMARY KEY,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>test VARCHAR(50),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>img VARCHAR(50),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>price int,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>number int,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>test4 VARCHAR(50),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>test5 VARCHAR(50)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>);</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1820,31 +1976,31 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
-            <a:t>    member_name VARCHAR(20) NOT NULL,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
-            <a:t>    member_address VARCHAR(255) NOT NULL,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
-            <a:t>    member_tel int NOT NULL,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
-            <a:t>    member_mailaddress VARCHAR(20) NOT NULL,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
-            <a:t>    member_creditcard int NOT NULL,</a:t>
+            <a:t>    member_name VARCHAR(20),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>    member_address VARCHAR(255),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>    member_mailaddress VARCHAR(255) NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>    member_creditcard bigint ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+            <a:t>    member_creditcard_expired_date int,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2129,15 +2285,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>256336</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>61310</xdr:rowOff>
+      <xdr:colOff>239403</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>112110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>33866</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>17517</xdr:rowOff>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2152,7 +2308,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="256336" y="9205310"/>
+          <a:off x="239403" y="9510110"/>
           <a:ext cx="3570597" cy="1734207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2407,6 +2563,147 @@
             <a:t>    );</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>116974</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>183816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>183816</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16711</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="線吹き出し 1 (枠付き) 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B767AF-8D42-25BE-329A-9EF668415024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10594474" y="2690395"/>
+          <a:ext cx="1971842" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33487"/>
+            <a:gd name="adj2" fmla="val 989"/>
+            <a:gd name="adj3" fmla="val 13553"/>
+            <a:gd name="adj4" fmla="val -106977"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購入手続きに入った同じ日付でリスト化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>751973</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116973</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDCB97A-9D59-E5AF-10DF-F80A28EF3101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10276973" y="4829342"/>
+          <a:ext cx="2222500" cy="401053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン情報のトリガーに設定</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2714,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBD4ACF-1554-B64A-B330-8CB5B016E04A}">
   <dimension ref="C1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="76" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2834,7 +3131,7 @@
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2845,7 +3142,7 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -2868,7 +3165,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
@@ -2878,6 +3175,9 @@
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
       <c r="I20" t="s">
         <v>4</v>
       </c>
@@ -2885,6 +3185,9 @@
     <row r="21" spans="3:9">
       <c r="C21" t="s">
         <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>26</v>
